--- a/src/Homeworks/Разпределение на задачите за първата домашна работа за втория срок.xlsx
+++ b/src/Homeworks/Разпределение на задачите за първата домашна работа за втория срок.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Development\.NET\Practical-Software-Development-11D\src\Homeworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{85DD4CFA-076B-43B2-9974-091CE248BA79}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3311F8-B770-44B1-80BD-4F2428948473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="23" uniqueCount="23">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>№ в клас</t>
   </si>
@@ -79,9 +79,6 @@
   </si>
   <si>
     <t>№ Задача - Заявки, включващи външни съединения и/или подзаявки</t>
-  </si>
-  <si>
-    <t>№ Задача -  Заявки, включващи обобщаващи функции (като SUM, COUNT, AVG, MIN, MAX)</t>
   </si>
   <si>
     <t>Може да намерите намерите кода за създаване на базата и нейната документация: https://github.com/plamenna-petrova/Practical-Software-Development-11D/tree/master/src/Exercises/Connecting-Applications-To-Databases/MoviesDatabase</t>
@@ -149,13 +146,12 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD53DB6B-361E-4167-A1F9-5017E0A722F4}" name="Table2" displayName="Table2" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{FD53DB6B-361E-4167-A1F9-5017E0A722F4}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD53DB6B-361E-4167-A1F9-5017E0A722F4}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14" xr:uid="{FD53DB6B-361E-4167-A1F9-5017E0A722F4}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{3F9678DE-53D9-430B-B660-04FB96A38A42}" name="№ в клас"/>
     <tableColumn id="2" xr3:uid="{8910594E-FF29-489C-B2B7-333D6998A847}" name="Име"/>
     <tableColumn id="3" xr3:uid="{5716F411-613E-49D8-B726-23787206D90D}" name="№ Задача - Заявки към повече от една релации"/>
-    <tableColumn id="4" xr3:uid="{E7AD0A3C-44E8-4637-BD2B-5FBAC86B4FA7}" name="№ Задача -  Заявки, включващи обобщаващи функции (като SUM, COUNT, AVG, MIN, MAX)"/>
     <tableColumn id="5" xr3:uid="{35AE889D-E472-4C2A-B8B8-8BB8F27AEEA8}" name="№ Задача - Заявки, включващи GROUP BY, HAVING"/>
     <tableColumn id="6" xr3:uid="{C9AD348D-75F5-499D-BFB6-0EB366E88575}" name="№ Задача - Заявки, включващи външни съединения и/или подзаявки"/>
   </tableColumns>
@@ -426,10 +422,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F19"/>
+  <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20"/>
+      <selection activeCell="A16" sqref="A16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -438,11 +434,11 @@
     <col min="2" max="2" width="39.88671875" customWidth="1"/>
     <col min="3" max="3" width="47.6640625" customWidth="1"/>
     <col min="4" max="4" width="83.5546875" customWidth="1"/>
-    <col min="5" max="5" width="47.5546875" customWidth="1"/>
+    <col min="5" max="5" width="69.33203125" customWidth="1"/>
     <col min="6" max="6" width="65.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -453,137 +449,251 @@
         <v>15</v>
       </c>
       <c r="D1" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="E1" t="s">
-        <v>16</v>
-      </c>
-      <c r="F1" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2">
         <v>14</v>
       </c>
       <c r="B2" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C2">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>5</v>
+      </c>
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3">
         <v>15</v>
       </c>
       <c r="B3" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C3">
+        <v>2</v>
+      </c>
+      <c r="D3">
+        <v>8</v>
+      </c>
+      <c r="E3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4">
         <v>16</v>
       </c>
       <c r="B4" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C4">
+        <v>3</v>
+      </c>
+      <c r="D4">
+        <v>2</v>
+      </c>
+      <c r="E4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>17</v>
       </c>
       <c r="B5" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>6</v>
+      </c>
+      <c r="E5">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6">
         <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C6">
+        <v>6</v>
+      </c>
+      <c r="D6">
+        <v>7</v>
+      </c>
+      <c r="E6">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A7">
         <v>19</v>
       </c>
       <c r="B7" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C7">
+        <v>4</v>
+      </c>
+      <c r="D7">
+        <v>4</v>
+      </c>
+      <c r="E7">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A8">
         <v>20</v>
       </c>
       <c r="B8" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C8">
+        <v>5</v>
+      </c>
+      <c r="D8">
+        <v>2</v>
+      </c>
+      <c r="E8">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A9">
         <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C9">
+        <v>1</v>
+      </c>
+      <c r="D9">
+        <v>1</v>
+      </c>
+      <c r="E9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A10">
         <v>22</v>
       </c>
       <c r="B10" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C10">
+        <v>8</v>
+      </c>
+      <c r="D10">
+        <v>1</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A11">
         <v>23</v>
       </c>
       <c r="B11" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C11">
+        <v>8</v>
+      </c>
+      <c r="D11">
+        <v>7</v>
+      </c>
+      <c r="E11">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A12">
         <v>24</v>
       </c>
       <c r="B12" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C12">
+        <v>7</v>
+      </c>
+      <c r="D12">
+        <v>6</v>
+      </c>
+      <c r="E12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A13">
         <v>25</v>
       </c>
       <c r="B13" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C13">
+        <v>9</v>
+      </c>
+      <c r="D13">
+        <v>4</v>
+      </c>
+      <c r="E13">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A14">
         <v>26</v>
       </c>
       <c r="B14" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C14">
+        <v>1</v>
+      </c>
+      <c r="D14">
+        <v>2</v>
+      </c>
+      <c r="E14">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
   </sheetData>

--- a/src/Homeworks/Разпределение на задачите за първата домашна работа за втория срок.xlsx
+++ b/src/Homeworks/Разпределение на задачите за първата домашна работа за втория срок.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Development\.NET\Practical-Software-Development-11D\src\Homeworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E3311F8-B770-44B1-80BD-4F2428948473}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2680B9A-C798-4BAB-BB41-9C7129C3C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -114,7 +114,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -122,17 +122,292 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="5" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="9">
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right/>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left/>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+      </border>
+    </dxf>
+    <dxf>
+      <border>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -146,14 +421,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD53DB6B-361E-4167-A1F9-5017E0A722F4}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD53DB6B-361E-4167-A1F9-5017E0A722F4}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
   <autoFilter ref="A1:E14" xr:uid="{FD53DB6B-361E-4167-A1F9-5017E0A722F4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3F9678DE-53D9-430B-B660-04FB96A38A42}" name="№ в клас"/>
-    <tableColumn id="2" xr3:uid="{8910594E-FF29-489C-B2B7-333D6998A847}" name="Име"/>
-    <tableColumn id="3" xr3:uid="{5716F411-613E-49D8-B726-23787206D90D}" name="№ Задача - Заявки към повече от една релации"/>
-    <tableColumn id="5" xr3:uid="{35AE889D-E472-4C2A-B8B8-8BB8F27AEEA8}" name="№ Задача - Заявки, включващи GROUP BY, HAVING"/>
-    <tableColumn id="6" xr3:uid="{C9AD348D-75F5-499D-BFB6-0EB366E88575}" name="№ Задача - Заявки, включващи външни съединения и/или подзаявки"/>
+    <tableColumn id="1" xr3:uid="{3F9678DE-53D9-430B-B660-04FB96A38A42}" name="№ в клас" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{8910594E-FF29-489C-B2B7-333D6998A847}" name="Име" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{5716F411-613E-49D8-B726-23787206D90D}" name="№ Задача - Заявки към повече от една релации" dataDxfId="3"/>
+    <tableColumn id="5" xr3:uid="{35AE889D-E472-4C2A-B8B8-8BB8F27AEEA8}" name="№ Задача - Заявки, включващи GROUP BY, HAVING" dataDxfId="2"/>
+    <tableColumn id="6" xr3:uid="{C9AD348D-75F5-499D-BFB6-0EB366E88575}" name="№ Задача - Заявки, включващи външни съединения и/или подзаявки" dataDxfId="1"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -425,7 +700,7 @@
   <dimension ref="A1:E19"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A16" sqref="A16"/>
+      <selection activeCell="A20" sqref="A20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -439,240 +714,240 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D1" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E1" s="3" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="A2" s="4">
         <v>14</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B2" s="5" t="s">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C2" s="5">
         <v>3</v>
       </c>
-      <c r="D2">
+      <c r="D2" s="5">
         <v>5</v>
       </c>
-      <c r="E2">
+      <c r="E2" s="6">
         <v>2</v>
       </c>
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="A3" s="4">
         <v>15</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="5" t="s">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C3" s="5">
         <v>2</v>
       </c>
-      <c r="D3">
+      <c r="D3" s="5">
         <v>8</v>
       </c>
-      <c r="E3">
+      <c r="E3" s="6">
         <v>6</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="A4" s="4">
         <v>16</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="5" t="s">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C4" s="5">
         <v>3</v>
       </c>
-      <c r="D4">
+      <c r="D4" s="5">
         <v>2</v>
       </c>
-      <c r="E4">
+      <c r="E4" s="6">
         <v>10</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="A5" s="4">
         <v>17</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B5" s="5" t="s">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C5" s="5">
         <v>2</v>
       </c>
-      <c r="D5">
+      <c r="D5" s="5">
         <v>6</v>
       </c>
-      <c r="E5">
+      <c r="E5" s="6">
         <v>11</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6">
+      <c r="A6" s="4">
         <v>18</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B6" s="5" t="s">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C6" s="5">
         <v>6</v>
       </c>
-      <c r="D6">
+      <c r="D6" s="5">
         <v>7</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="6">
         <v>9</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7">
+      <c r="A7" s="4">
         <v>19</v>
       </c>
-      <c r="B7" t="s">
+      <c r="B7" s="5" t="s">
         <v>7</v>
       </c>
-      <c r="C7">
+      <c r="C7" s="5">
         <v>4</v>
       </c>
-      <c r="D7">
+      <c r="D7" s="5">
         <v>4</v>
       </c>
-      <c r="E7">
+      <c r="E7" s="6">
         <v>13</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8">
+      <c r="A8" s="4">
         <v>20</v>
       </c>
-      <c r="B8" t="s">
+      <c r="B8" s="5" t="s">
         <v>8</v>
       </c>
-      <c r="C8">
+      <c r="C8" s="5">
         <v>5</v>
       </c>
-      <c r="D8">
+      <c r="D8" s="5">
         <v>2</v>
       </c>
-      <c r="E8">
+      <c r="E8" s="6">
         <v>5</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9">
+      <c r="A9" s="4">
         <v>21</v>
       </c>
-      <c r="B9" t="s">
+      <c r="B9" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C9" s="5">
         <v>1</v>
       </c>
-      <c r="D9">
+      <c r="D9" s="5">
         <v>1</v>
       </c>
-      <c r="E9">
+      <c r="E9" s="6">
         <v>7</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="A10" s="4">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
+      <c r="B10" s="5" t="s">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C10" s="5">
         <v>8</v>
       </c>
-      <c r="D10">
+      <c r="D10" s="5">
         <v>1</v>
       </c>
-      <c r="E10">
+      <c r="E10" s="6">
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11">
+      <c r="A11" s="4">
         <v>23</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="5" t="s">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C11" s="5">
         <v>8</v>
       </c>
-      <c r="D11">
+      <c r="D11" s="5">
         <v>7</v>
       </c>
-      <c r="E11">
+      <c r="E11" s="6">
         <v>4</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12">
+      <c r="A12" s="4">
         <v>24</v>
       </c>
-      <c r="B12" t="s">
+      <c r="B12" s="5" t="s">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C12" s="5">
         <v>7</v>
       </c>
-      <c r="D12">
+      <c r="D12" s="5">
         <v>6</v>
       </c>
-      <c r="E12">
+      <c r="E12" s="6">
         <v>3</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13">
+      <c r="A13" s="4">
         <v>25</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B13" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C13" s="5">
         <v>9</v>
       </c>
-      <c r="D13">
+      <c r="D13" s="5">
         <v>4</v>
       </c>
-      <c r="E13">
+      <c r="E13" s="6">
         <v>8</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="A14" s="7">
         <v>26</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B14" s="8" t="s">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C14" s="8">
         <v>1</v>
       </c>
-      <c r="D14">
+      <c r="D14" s="8">
         <v>2</v>
       </c>
-      <c r="E14">
+      <c r="E14" s="9">
         <v>15</v>
       </c>
     </row>

--- a/src/Homeworks/Разпределение на задачите за първата домашна работа за втория срок.xlsx
+++ b/src/Homeworks/Разпределение на задачите за първата домашна работа за втория срок.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Software Development\.NET\Practical-Software-Development-11D\src\Homeworks\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A2680B9A-C798-4BAB-BB41-9C7129C3C60A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A3E8E9CD-B5DB-4BDF-97DF-D266655C5791}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -81,16 +81,16 @@
     <t>№ Задача - Заявки, включващи външни съединения и/или подзаявки</t>
   </si>
   <si>
-    <t>Може да намерите намерите кода за създаване на базата и нейната документация: https://github.com/plamenna-petrova/Practical-Software-Development-11D/tree/master/src/Exercises/Connecting-Applications-To-Databases/MoviesDatabase</t>
-  </si>
-  <si>
     <t>Обърнете внимание на раздела Създаване на заявки</t>
   </si>
   <si>
-    <t>Решете задачи като по два начина - един синхронен и един асинхронен</t>
-  </si>
-  <si>
-    <t>За създаване на базата данни копирайте целия код от файла Movies-Database.sql с Ctrl+A + Ctrl+C + Ctrl+V в ново query-и. Изпълнете командите с Execute.</t>
+    <t>Може да намерите кода за създаване на базата и нейната документация: https://github.com/plamenna-petrova/Practical-Software-Development-11D/tree/master/src/Exercises/Connecting-Applications-To-Databases/MoviesDatabase</t>
+  </si>
+  <si>
+    <t>Решете задачите по два начина - един синхронен и един асинхронен</t>
+  </si>
+  <si>
+    <t>За създаване на базата данни копирайте целия код от файла Movies-Database.sql с Ctrl+A + Ctrl+C + Ctrl+V в ново query-и. Изпълнете командите с бутона Execute.</t>
   </si>
 </sst>
 </file>
@@ -258,24 +258,6 @@
         <left style="thin">
           <color indexed="64"/>
         </left>
-        <right style="thin">
-          <color indexed="64"/>
-        </right>
-        <top/>
-        <bottom/>
-        <vertical style="thin">
-          <color indexed="64"/>
-        </vertical>
-        <horizontal style="thin">
-          <color indexed="64"/>
-        </horizontal>
-      </border>
-    </dxf>
-    <dxf>
-      <border diagonalUp="0" diagonalDown="0">
-        <left style="thin">
-          <color indexed="64"/>
-        </left>
         <right/>
         <top style="thin">
           <color indexed="64"/>
@@ -385,6 +367,22 @@
       </border>
     </dxf>
     <dxf>
+      <border diagonalUp="0" diagonalDown="0">
+        <left style="thin">
+          <color indexed="64"/>
+        </left>
+        <right style="thin">
+          <color indexed="64"/>
+        </right>
+        <top style="thin">
+          <color indexed="64"/>
+        </top>
+        <bottom style="thin">
+          <color indexed="64"/>
+        </bottom>
+      </border>
+    </dxf>
+    <dxf>
       <border>
         <bottom style="thin">
           <color indexed="64"/>
@@ -399,12 +397,14 @@
         <right style="thin">
           <color indexed="64"/>
         </right>
-        <top style="thin">
-          <color indexed="64"/>
-        </top>
-        <bottom style="thin">
-          <color indexed="64"/>
-        </bottom>
+        <top/>
+        <bottom/>
+        <vertical style="thin">
+          <color indexed="64"/>
+        </vertical>
+        <horizontal style="thin">
+          <color indexed="64"/>
+        </horizontal>
       </border>
     </dxf>
   </dxfs>
@@ -421,14 +421,14 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD53DB6B-361E-4167-A1F9-5017E0A722F4}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="0" headerRowBorderDxfId="7" tableBorderDxfId="8" totalsRowBorderDxfId="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{FD53DB6B-361E-4167-A1F9-5017E0A722F4}" name="Table2" displayName="Table2" ref="A1:E14" totalsRowShown="0" headerRowDxfId="8" headerRowBorderDxfId="7" tableBorderDxfId="6" totalsRowBorderDxfId="5">
   <autoFilter ref="A1:E14" xr:uid="{FD53DB6B-361E-4167-A1F9-5017E0A722F4}"/>
   <tableColumns count="5">
-    <tableColumn id="1" xr3:uid="{3F9678DE-53D9-430B-B660-04FB96A38A42}" name="№ в клас" dataDxfId="5"/>
-    <tableColumn id="2" xr3:uid="{8910594E-FF29-489C-B2B7-333D6998A847}" name="Име" dataDxfId="4"/>
-    <tableColumn id="3" xr3:uid="{5716F411-613E-49D8-B726-23787206D90D}" name="№ Задача - Заявки към повече от една релации" dataDxfId="3"/>
-    <tableColumn id="5" xr3:uid="{35AE889D-E472-4C2A-B8B8-8BB8F27AEEA8}" name="№ Задача - Заявки, включващи GROUP BY, HAVING" dataDxfId="2"/>
-    <tableColumn id="6" xr3:uid="{C9AD348D-75F5-499D-BFB6-0EB366E88575}" name="№ Задача - Заявки, включващи външни съединения и/или подзаявки" dataDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{3F9678DE-53D9-430B-B660-04FB96A38A42}" name="№ в клас" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{8910594E-FF29-489C-B2B7-333D6998A847}" name="Име" dataDxfId="3"/>
+    <tableColumn id="3" xr3:uid="{5716F411-613E-49D8-B726-23787206D90D}" name="№ Задача - Заявки към повече от една релации" dataDxfId="2"/>
+    <tableColumn id="5" xr3:uid="{35AE889D-E472-4C2A-B8B8-8BB8F27AEEA8}" name="№ Задача - Заявки, включващи GROUP BY, HAVING" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{C9AD348D-75F5-499D-BFB6-0EB366E88575}" name="№ Задача - Заявки, включващи външни съединения и/или подзаявки" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleDark9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -953,12 +953,12 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
